--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251108_201245.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251108_201245.xlsx
@@ -3341,7 +3341,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
